--- a/Uitvoering Documenten/85866_PhilipKlok_ExPVB25604_SysteemTest_Pog1.xlsx
+++ b/Uitvoering Documenten/85866_PhilipKlok_ExPVB25604_SysteemTest_Pog1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\spl-sv04\data$\Exameninstrumenten\60-ICT\2016\AO\P1 - AMO\PvB\Sjablonen PvB AO\200108 KV Sjablonen PvB AO na BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e-expansionict/Documents/PKstage/Examen Philip Klok/Examen_E-Expansion/Uitvoering Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41356434-C214-254E-A91C-D5D81B235FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="27500" yWindow="500" windowWidth="17300" windowHeight="8980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="5" r:id="rId1"/>
@@ -26,24 +27,16 @@
     <definedName name="BenoemdBereik1">'TestCases &amp; resultaten'!$I:$I</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Menno</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,68 +80,104 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Menno</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Naam van de functie
-Voorbeeld: Inloggen</t>
+          <t xml:space="preserve">Naam van de functie
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voorbeeld: Inloggen</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Beschrijf hoe de situatie van het systeem is voordat de systeemtest wordt uitgevoerd.
-Voorbeeld: Database server gestopt</t>
+          <t xml:space="preserve">Beschrijf hoe de situatie van het systeem is voordat de systeemtest wordt uitgevoerd.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voorbeeld: Database server gestopt</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Beschrijf wat je doet om de systeemtest uit te voeren.
-Voorbeeld: Gebruikersnaam en wachtwoord ingevuld, vervolgens op knop Inloggen gedrukt.</t>
+          <t xml:space="preserve">Beschrijf wat je doet om de systeemtest uit te voeren.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voorbeeld: Gebruikersnaam en wachtwoord ingevuld, vervolgens op knop Inloggen gedrukt.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Beschrijf hoe je verwacht dat de applicatie reageert.
-Voorbeeld: Foutmelding: Onverwachte fout. Meld de systeembeheerder.</t>
+          <t xml:space="preserve">Beschrijf hoe je verwacht dat de applicatie reageert.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voorbeeld: Foutmelding: Onverwachte fout. Meld de systeembeheerder.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,26 +191,35 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Noteer alles wat tijdens de systeemtest opvalt, ook al behoort het niet tot de test!
-Voorbeeld: De meldingkleur is groen.</t>
+          <t xml:space="preserve">Noteer alles wat tijdens de systeemtest opvalt, ook al behoort het niet tot de test!
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voorbeeld: De meldingkleur is groen.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -191,7 +229,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -200,35 +238,53 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> wordt uitgevoerd voor, tijdens of na de systeemtest.
-Voorbeeld: Er werd een wit scherm getoond, er moest op de terugtoets worden geklikt om de inlogpagina weer te zien.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voorbeeld: Er werd een wit scherm getoond, er moest op de terugtoets worden geklikt om de inlogpagina weer te zien.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Beschrijf of de fout tijdens realisatie moet worden aangepast.
-Voorbeeld: Nee betekent dat de fout (nog) niet wordt aangepast.</t>
+          <t xml:space="preserve">Beschrijf of de fout tijdens realisatie moet worden aangepast.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voorbeeld: Nee betekent dat de fout (nog) niet wordt aangepast.</t>
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -236,26 +292,35 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Beschrijf waaraan de ontwikkelaar zich moet houden tijdens het oplossen van de fout.
-Voorbeeld: Huisstijl of codeconventions</t>
+          <t xml:space="preserve">Beschrijf waaraan de ontwikkelaar zich moet houden tijdens het oplossen van de fout.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voorbeeld: Huisstijl of codeconventions</t>
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -263,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -277,26 +342,35 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Beschrijf wat er is aangepast om de fout te corrigeren.
-Voorbeeld: Database server gestart</t>
+          <t xml:space="preserve">Beschrijf wat er is aangepast om de fout te corrigeren.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voorbeeld: Database server gestart</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -309,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Volgnr</t>
   </si>
@@ -420,12 +494,63 @@
   <si>
     <t>Opmerking: Voor testcases zie tabblad TestCases.</t>
   </si>
+  <si>
+    <t>Elementor</t>
+  </si>
+  <si>
+    <t>Tot nu toe alleen het formulier toegevoegd in Elementor, maar de pagina's nog niks mee gedaan vanwege er te weinig tijd was</t>
+  </si>
+  <si>
+    <t>Inloggen in Elementor en kijken of er iets is gemaakt.</t>
+  </si>
+  <si>
+    <t>Niet aan begonnen, niks gemaakt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gekeken naar het gehele project in Elementor, alleen de aanpassingen die er zijn gemaakt is de kleuren en logo die erin zitten. </t>
+  </si>
+  <si>
+    <t>Philip Klok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na de PvB wordt hier naar gewerkt en denkt aan het spreken van andere medewerkers in het project. </t>
+  </si>
+  <si>
+    <t>Wordt nog vervolgd</t>
+  </si>
+  <si>
+    <t>Multi-step form</t>
+  </si>
+  <si>
+    <t>Compleet, niks meer eraan doen.</t>
+  </si>
+  <si>
+    <t>Het formulier is af en zijn in gesprek gegaan over het formulier, volgens Pippijn Stortelder is het formulier compleet.</t>
+  </si>
+  <si>
+    <t>Of er nog foutmeldingen zijn en errors in de code/ Elementor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dat er geen één pagina is gemaakt. Aangezien er geen tijd meer hiervoor was. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In de code mist nog wat commentaar en in Elementor staat bij het resultaat de tekst niet in het midden. </t>
+  </si>
+  <si>
+    <t>Eerst naar de code wezen kijken en de opmaak zag er goed uit, de code was mooi verdeeld, alleen wat het nog wat misten was het commentaar bij het JavaScript gedeelte. In Elementor keken we naar het formulier en gingen alle stappen af, ook weer terug bij stap 2 om te kijken of het werkten.</t>
+  </si>
+  <si>
+    <t>Bij het commentaar in de code, zorg ervoor dat je het commentaar goed mogelijk uitleg zodat andere de functies snappen.</t>
+  </si>
+  <si>
+    <t>De lijnen van code opnieuw naar gekeken en daarna uitgelegd boven de functie.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -506,9 +631,15 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1238,33 +1369,32 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,9 +1421,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
@@ -2223,40 +2357,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:C6" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="A2:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:C6" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A2:C6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Inlogcodes" dataDxfId="24"/>
-    <tableColumn id="2" name="Test- en Databestanden (indien van toepassing)" dataDxfId="23"/>
-    <tableColumn id="3" name="Extra informatie" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Inlogcodes" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Test- en Databestanden (indien van toepassing)" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Extra informatie" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:Q52" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="A2:Q52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A2:Q52" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A2:Q52" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Volgnr" dataDxfId="16"/>
-    <tableColumn id="2" name="Functie" dataDxfId="15"/>
-    <tableColumn id="3" name="Situatie" dataDxfId="14"/>
-    <tableColumn id="4" name="Actie" dataDxfId="13"/>
-    <tableColumn id="5" name="Verwacht Resultaat" dataDxfId="12"/>
-    <tableColumn id="6" name="Correct _x000a_Ja/Nee" dataDxfId="11"/>
-    <tableColumn id="7" name="Opmerkingen" dataDxfId="10"/>
-    <tableColumn id="8" name="Verrichte handelingen" dataDxfId="9"/>
-    <tableColumn id="9" name="Aanpassen _x000a_Ja/Nee" dataDxfId="8"/>
-    <tableColumn id="10" name="Prioriteit" dataDxfId="7"/>
-    <tableColumn id="11" name="Naam Tester" dataDxfId="6"/>
-    <tableColumn id="12" name="Datum Getest" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Volgnr" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Functie" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Situatie" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Actie" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Verwacht Resultaat" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Correct _x000a_Ja/Nee" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Opmerkingen" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Verrichte handelingen" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Aanpassen _x000a_Ja/Nee" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Prioriteit" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Naam Tester" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Datum Getest" dataDxfId="5">
       <calculatedColumnFormula>IF(L2="","",L2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Richtlijn wijzigingen" dataDxfId="4"/>
-    <tableColumn id="14" name="Datum opgelost" dataDxfId="3"/>
-    <tableColumn id="15" name="Naam ontwikkelaar" dataDxfId="2"/>
-    <tableColumn id="16" name="Oplossing" dataDxfId="1"/>
-    <tableColumn id="17" name="Documentatie aangepast Ja/Nee" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Richtlijn wijzigingen" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Datum opgelost" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Naam ontwikkelaar" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Oplossing" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Documentatie aangepast Ja/Nee" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2558,90 +2692,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="51" style="45" customWidth="1"/>
-    <col min="2" max="2" width="53.7265625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="55.1796875" style="45" customWidth="1"/>
-    <col min="4" max="4" width="36.26953125" style="45" hidden="1" customWidth="1"/>
-    <col min="5" max="20" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="45" hidden="1"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" customWidth="1"/>
+    <col min="3" max="3" width="55.1640625" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="35.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:19" ht="35.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-    </row>
-    <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
       <c r="B3" s="4"/>
       <c r="C3" s="41"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="40"/>
       <c r="B4" s="4"/>
       <c r="C4" s="41"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="4"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42"/>
       <c r="B6" s="43"/>
       <c r="C6" s="44"/>
     </row>
-    <row r="7" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+    <row r="7" spans="1:19" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="48"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8" s="49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S11" s="51"/>
-    </row>
-    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.25">
-      <c r="S12" s="52"/>
-    </row>
-    <row r="13" spans="1:19" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="S13" s="49"/>
-    </row>
-    <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.25">
-      <c r="S14" s="52"/>
-    </row>
-    <row r="15" spans="1:19" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="S15" s="49"/>
-    </row>
-    <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.25">
-      <c r="S16" s="52"/>
+    <row r="10" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S11" s="50"/>
+    </row>
+    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.15">
+      <c r="S12" s="51"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="S13" s="48"/>
+    </row>
+    <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.15">
+      <c r="S14" s="51"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="S15" s="48"/>
+    </row>
+    <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.15">
+      <c r="S16" s="51"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" autoFilter="0"/>
@@ -2663,66 +2797,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:M1"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="17" customWidth="1"/>
     <col min="3" max="5" width="28" style="17" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.1796875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="40.54296875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" style="17" customWidth="1"/>
-    <col min="12" max="12" width="15.26953125" style="17" customWidth="1"/>
-    <col min="13" max="13" width="41.1796875" style="17" customWidth="1"/>
-    <col min="14" max="14" width="19.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="40.5" style="17" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="41.1640625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36" style="17" customWidth="1"/>
-    <col min="17" max="17" width="15.81640625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" style="17" customWidth="1"/>
     <col min="18" max="18" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="14.453125" style="17" hidden="1"/>
+    <col min="19" max="16384" width="14.5" style="17" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="56" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="59" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="61"/>
-    </row>
-    <row r="2" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="60"/>
+    </row>
+    <row r="2" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2775,49 +2908,113 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="32">
+        <v>45051</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="15"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="29">
+        <v>45054</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="63">
+        <v>45054</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -2838,7 +3035,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="15"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -2859,7 +3056,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -2880,7 +3077,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -2901,7 +3098,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -2922,7 +3119,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -2943,7 +3140,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>9</v>
       </c>
@@ -2964,7 +3161,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -2985,7 +3182,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -3006,7 +3203,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>12</v>
       </c>
@@ -3027,7 +3224,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>13</v>
       </c>
@@ -3048,7 +3245,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>14</v>
       </c>
@@ -3069,7 +3266,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -3090,7 +3287,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>16</v>
       </c>
@@ -3111,7 +3308,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>17</v>
       </c>
@@ -3132,7 +3329,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>18</v>
       </c>
@@ -3153,7 +3350,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>19</v>
       </c>
@@ -3174,7 +3371,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -3195,7 +3392,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>21</v>
       </c>
@@ -3216,7 +3413,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>22</v>
       </c>
@@ -3237,7 +3434,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>23</v>
       </c>
@@ -3258,7 +3455,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>24</v>
       </c>
@@ -3279,7 +3476,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>25</v>
       </c>
@@ -3300,7 +3497,7 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="15"/>
     </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>26</v>
       </c>
@@ -3321,7 +3518,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="15"/>
     </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>27</v>
       </c>
@@ -3342,7 +3539,7 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>28</v>
       </c>
@@ -3363,7 +3560,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>29</v>
       </c>
@@ -3384,7 +3581,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="18">
         <v>30</v>
       </c>
@@ -3405,7 +3602,7 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="24"/>
     </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18">
         <v>31</v>
       </c>
@@ -3426,7 +3623,7 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="35"/>
     </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18">
         <v>32</v>
       </c>
@@ -3447,7 +3644,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="35"/>
     </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18">
         <v>33</v>
       </c>
@@ -3468,7 +3665,7 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="35"/>
     </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18">
         <v>34</v>
       </c>
@@ -3489,7 +3686,7 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="35"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18">
         <v>35</v>
       </c>
@@ -3510,7 +3707,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="35"/>
     </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18">
         <v>36</v>
       </c>
@@ -3531,7 +3728,7 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="35"/>
     </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18">
         <v>37</v>
       </c>
@@ -3552,7 +3749,7 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="35"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="18">
         <v>38</v>
       </c>
@@ -3573,7 +3770,7 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="35"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18">
         <v>39</v>
       </c>
@@ -3594,7 +3791,7 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="35"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="18">
         <v>40</v>
       </c>
@@ -3615,7 +3812,7 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="35"/>
     </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18">
         <v>41</v>
       </c>
@@ -3636,7 +3833,7 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="35"/>
     </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18">
         <v>42</v>
       </c>
@@ -3657,7 +3854,7 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="35"/>
     </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18">
         <v>43</v>
       </c>
@@ -3678,7 +3875,7 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="35"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="18">
         <v>44</v>
       </c>
@@ -3699,7 +3896,7 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="35"/>
     </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="18">
         <v>45</v>
       </c>
@@ -3720,7 +3917,7 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="35"/>
     </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18">
         <v>46</v>
       </c>
@@ -3741,7 +3938,7 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="35"/>
     </row>
-    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18">
         <v>47</v>
       </c>
@@ -3762,7 +3959,7 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="35"/>
     </row>
-    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18">
         <v>48</v>
       </c>
@@ -3783,7 +3980,7 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="35"/>
     </row>
-    <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="18">
         <v>49</v>
       </c>
@@ -3804,7 +4001,7 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="35"/>
     </row>
-    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="18">
         <v>50</v>
       </c>
@@ -3846,13 +4043,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Settings!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>I3:I52 F3:F52 Q3:Q52</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Settings!$B$2:$B$5</xm:f>
           </x14:formula1>
@@ -3865,16 +4062,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>19</v>
       </c>
@@ -3882,7 +4079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3890,7 +4087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3898,12 +4095,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -4249,10 +4446,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1F23179-5ED4-4CC7-A439-37CA8982D425}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1F23179-5ED4-4CC7-A439-37CA8982D425}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>